--- a/references/schedule.xlsx
+++ b/references/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_5_modelo_clusterizacao_classificacao_app_delivery\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA6AB8E-B4B8-43CA-8C51-F9C377DF220B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE166F5-3D78-4297-9EB1-C9EFCF6B892A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9B6D4990-42CD-4CA7-863E-3F7B63FF2202}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="20" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -161,6 +161,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="dd/mm;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -269,12 +272,123 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="53">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-416]d\-mmm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="dd/mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-416]d\-mmm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/m;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/m;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -372,11 +486,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Linha do Tempo 1" pivot="0" table="0" count="8" xr9:uid="{52153AD7-0907-468F-A228-FC343C1E76FF}">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="52"/>
+      <tableStyleElement type="headerRow" dxfId="51"/>
     </tableStyle>
     <tableStyle name="Estilo de Segmentação de Dados 1" pivot="0" table="0" count="3" xr9:uid="{FDE6E4C7-9916-4C60-92F6-8C897BF1D2DF}">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="wholeTable" dxfId="50"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1958,6 +2072,55 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -1998,6 +2161,16 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-6D18-4A0D-AA6E-2EE47E8B7EFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2094,37 +2267,37 @@
             <c:numRef>
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>dd/mm;@</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>45536</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45539</c:v>
+                  <c:v>45538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45542</c:v>
+                  <c:v>45541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45546</c:v>
+                  <c:v>45545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45548</c:v>
+                  <c:v>45547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>45549</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>45553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>45556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>45561</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>45563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2262,31 +2435,31 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2434,19 +2607,19 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45550</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45554</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45559</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45564</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45565</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2598,19 +2771,19 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2688,7 +2861,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45565"/>
-          <c:min val="45533"/>
+          <c:min val="45536"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -2720,7 +2893,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="dd/mm;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2751,7 +2924,8 @@
         <c:crossAx val="1820084783"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="31"/>
+        <c:majorUnit val="7"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3660,7 +3834,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matheus Resende" refreshedDate="45550.536600462961" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{8A3E0842-8E5A-489C-BFB1-EDEEAC84A9EE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matheus Resende" refreshedDate="45550.609573726855" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{8A3E0842-8E5A-489C-BFB1-EDEEAC84A9EE}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela4"/>
   </cacheSource>
@@ -3705,18 +3879,28 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Data de Início Prevista" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-04-01T00:00:00" maxDate="2024-10-16T00:00:00" count="26">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-04-01T00:00:00" maxDate="2024-10-16T00:00:00" count="35">
         <d v="2024-09-01T00:00:00"/>
-        <d v="2024-09-04T00:00:00"/>
-        <d v="2024-09-07T00:00:00"/>
-        <d v="2024-09-11T00:00:00"/>
-        <d v="2024-09-13T00:00:00"/>
-        <d v="2024-09-15T00:00:00"/>
-        <d v="2024-09-19T00:00:00"/>
-        <d v="2024-09-24T00:00:00"/>
-        <d v="2024-09-29T00:00:00"/>
-        <d v="2024-09-30T00:00:00"/>
-        <d v="2024-09-12T00:00:00" u="1"/>
+        <d v="2024-09-03T00:00:00"/>
+        <d v="2024-09-06T00:00:00"/>
+        <d v="2024-09-10T00:00:00"/>
+        <d v="2024-09-12T00:00:00"/>
+        <d v="2024-09-14T00:00:00"/>
+        <d v="2024-09-18T00:00:00"/>
+        <d v="2024-09-21T00:00:00"/>
+        <d v="2024-09-26T00:00:00"/>
+        <d v="2024-09-28T00:00:00"/>
+        <d v="2024-09-07T00:00:00" u="1"/>
+        <d v="2024-09-11T00:00:00" u="1"/>
+        <d v="2024-09-13T00:00:00" u="1"/>
+        <d v="2024-09-15T00:00:00" u="1"/>
+        <d v="2024-09-19T00:00:00" u="1"/>
+        <d v="2024-09-22T00:00:00" u="1"/>
+        <d v="2024-09-27T00:00:00" u="1"/>
+        <d v="2024-09-29T00:00:00" u="1"/>
+        <d v="2024-09-04T00:00:00" u="1"/>
+        <d v="2024-09-24T00:00:00" u="1"/>
+        <d v="2024-09-30T00:00:00" u="1"/>
         <d v="2024-07-16T00:00:00" u="1"/>
         <d v="2024-07-26T00:00:00" u="1"/>
         <d v="2024-08-06T00:00:00" u="1"/>
@@ -3728,7 +3912,6 @@
         <d v="2024-04-01T00:00:00" u="1"/>
         <d v="2024-04-06T00:00:00" u="1"/>
         <d v="2024-08-26T00:00:00" u="1"/>
-        <d v="2024-09-06T00:00:00" u="1"/>
         <d v="2024-10-06T00:00:00" u="1"/>
         <d v="2024-10-11T00:00:00" u="1"/>
         <d v="2024-10-15T00:00:00" u="1"/>
@@ -3739,17 +3922,17 @@
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-09-03T00:00:00" maxDate="2024-10-01T00:00:00"/>
     </cacheField>
     <cacheField name="Duração Estimada (dias)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="5"/>
     </cacheField>
     <cacheField name="% de Conclusão" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Dias (Data de Início Prevista)" numFmtId="0" databaseField="0">
       <fieldGroup base="4">
-        <rangePr groupBy="days" startDate="2024-09-01T00:00:00" endDate="2024-10-01T00:00:00"/>
+        <rangePr groupBy="days" startDate="2024-09-01T00:00:00" endDate="2024-09-29T00:00:00"/>
         <groupItems count="368">
           <s v="&lt;01/09/2024"/>
           <s v="01/jan"/>
@@ -4118,13 +4301,13 @@
           <s v="29/dez"/>
           <s v="30/dez"/>
           <s v="31/dez"/>
-          <s v="&gt;01/10/2024"/>
+          <s v="&gt;29/09/2024"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="Meses (Data de Início Prevista)" numFmtId="0" databaseField="0">
       <fieldGroup base="4">
-        <rangePr groupBy="months" startDate="2024-09-01T00:00:00" endDate="2024-10-01T00:00:00"/>
+        <rangePr groupBy="months" startDate="2024-09-01T00:00:00" endDate="2024-09-29T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;01/09/2024"/>
           <s v="jan"/>
@@ -4139,7 +4322,7 @@
           <s v="out"/>
           <s v="nov"/>
           <s v="dez"/>
-          <s v="&gt;01/10/2024"/>
+          <s v="&gt;29/09/2024"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -4148,7 +4331,7 @@
     <cacheField name="DATA PREVISTA" numFmtId="0" formula="IF('Data de Término Prevista'&gt;DATA,'Data de Início Prevista',#N/A)" databaseField="0"/>
     <cacheField name="DURAÇÃO PREVISTA" numFmtId="0" formula="IF('Data de Término Prevista'&gt;DATA,'Duração Estimada (dias)',#N/A)" databaseField="0"/>
     <cacheField name="APOIO VALORES MENSAIS" numFmtId="0" formula="#NAME?" databaseField="0"/>
-    <cacheField name="DATA" numFmtId="0" formula=" DATE(2024,9,17)" databaseField="0"/>
+    <cacheField name="DATA" numFmtId="0" formula=" DATE(2024,10,1)" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -4178,7 +4361,7 @@
     <s v="Cientista de Dados"/>
     <x v="1"/>
     <d v="2024-09-06T00:00:00"/>
-    <n v="2"/>
+    <n v="3"/>
     <n v="1"/>
     <s v="Concluído"/>
   </r>
@@ -4189,7 +4372,7 @@
     <s v="Cientista de Dados"/>
     <x v="2"/>
     <d v="2024-09-10T00:00:00"/>
-    <n v="3"/>
+    <n v="4"/>
     <n v="1"/>
     <s v="Concluído"/>
   </r>
@@ -4200,7 +4383,7 @@
     <s v="Cientista de Dados"/>
     <x v="3"/>
     <d v="2024-09-12T00:00:00"/>
-    <n v="1"/>
+    <n v="2"/>
     <n v="1"/>
     <s v="Concluído"/>
   </r>
@@ -4211,7 +4394,7 @@
     <s v="Cientista de Dados"/>
     <x v="4"/>
     <d v="2024-09-14T00:00:00"/>
-    <n v="1"/>
+    <n v="2"/>
     <n v="1"/>
     <s v="Concluído"/>
   </r>
@@ -4222,9 +4405,9 @@
     <s v="Cientista de Dados"/>
     <x v="5"/>
     <d v="2024-09-18T00:00:00"/>
-    <n v="3"/>
-    <n v="0.66666666666666663"/>
-    <s v="Em andamento"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="Concluído"/>
   </r>
   <r>
     <n v="7"/>
@@ -4232,10 +4415,10 @@
     <s v="Seleção dos Modelos"/>
     <s v="Cientista de Dados"/>
     <x v="6"/>
-    <d v="2024-09-23T00:00:00"/>
-    <n v="4"/>
-    <n v="0"/>
-    <s v="Não iniciado"/>
+    <d v="2024-09-21T00:00:00"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="Concluído"/>
   </r>
   <r>
     <n v="8"/>
@@ -4243,10 +4426,10 @@
     <s v="Treinamento dos Modelos"/>
     <s v="Cientista de Dados"/>
     <x v="7"/>
-    <d v="2024-09-28T00:00:00"/>
-    <n v="4"/>
-    <n v="0"/>
-    <s v="Não iniciado"/>
+    <d v="2024-09-26T00:00:00"/>
+    <n v="5"/>
+    <n v="1"/>
+    <s v="Concluído"/>
   </r>
   <r>
     <n v="9"/>
@@ -4254,10 +4437,10 @@
     <s v="Validação do Modelo"/>
     <s v="Cientista de Dados"/>
     <x v="8"/>
-    <d v="2024-09-29T00:00:00"/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="Não iniciado"/>
+    <d v="2024-09-28T00:00:00"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="Concluído"/>
   </r>
   <r>
     <n v="10"/>
@@ -4266,15 +4449,15 @@
     <s v="Cientista de Dados"/>
     <x v="9"/>
     <d v="2024-09-30T00:00:00"/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="Não iniciado"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="Concluído"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00757DE2-1DBA-4008-9A82-BBC123A3CF4C}" name="Tabela dinâmica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00757DE2-1DBA-4008-9A82-BBC123A3CF4C}" name="Tabela dinâmica5" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="A2:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -4312,33 +4495,42 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0">
-      <items count="27">
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
+      <items count="36">
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item m="1" x="28"/>
         <item m="1" x="21"/>
         <item m="1" x="22"/>
         <item m="1" x="23"/>
         <item m="1" x="24"/>
         <item m="1" x="25"/>
+        <item m="1" x="31"/>
+        <item x="2"/>
+        <item m="1" x="32"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
         <item x="0"/>
+        <item m="1" x="18"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="4"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="19"/>
+        <item m="1" x="17"/>
+        <item m="1" x="20"/>
+        <item m="1" x="12"/>
+        <item m="1" x="16"/>
+        <item m="1" x="15"/>
         <item x="1"/>
-        <item x="2"/>
         <item x="3"/>
-        <item m="1" x="10"/>
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
-        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4425,13 +4617,13 @@
     </i>
   </colItems>
   <dataFields count="4">
-    <dataField name="Soma de DATA REALIZADA" fld="11" baseField="0" baseItem="0" numFmtId="14"/>
+    <dataField name="Soma de DATA REALIZADA" fld="11" baseField="0" baseItem="0" numFmtId="168"/>
     <dataField name="Soma de DURAÇÃO REALIZADA" fld="12" baseField="0" baseItem="0"/>
     <dataField name="Soma de DATA PREVISTA" fld="13" baseField="0" baseItem="0" numFmtId="14"/>
     <dataField name="Soma de DURAÇÃO PREVISTA" fld="14" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="4">
-    <format dxfId="3">
+  <formats count="5">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4440,10 +4632,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -4453,7 +4645,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4462,8 +4654,17 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
   </formats>
-  <chartFormats count="4">
+  <chartFormats count="5">
     <chartFormat chart="6" format="20" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -4500,6 +4701,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="6" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4514,26 +4727,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}" name="Tabela4" displayName="Tabela4" ref="A1:I11" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}" name="Tabela4" displayName="Tabela4" ref="A1:I11" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A1:I11" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4935668C-20D6-4C22-879A-3659A8472489}" name="ID Tarefa" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{4935668C-20D6-4C22-879A-3659A8472489}" name="ID Tarefa" dataDxfId="47">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E5AC6DCD-2443-40D5-B1A6-0A271666E5FF}" name="Nome da Tarefa" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{B241719C-F57F-47B5-A51F-A3BC561CE106}" name="Descrição da Tarefa" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{14F0C3FA-44D0-46F8-8AE3-F91974A2ABBD}" name="Responsável" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{AC92E2DC-DD13-4ED1-A800-0D7BC6D22FEC}" name="Data de Início Prevista" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{EC9E00E2-887E-410C-BA83-944AEDDAFBEB}" name="Data de Término Prevista" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{A18BD8B9-8163-48BB-A9DB-6C81D8B727BA}" name="Duração Estimada (dias)" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{E5AC6DCD-2443-40D5-B1A6-0A271666E5FF}" name="Nome da Tarefa" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{B241719C-F57F-47B5-A51F-A3BC561CE106}" name="Descrição da Tarefa" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{14F0C3FA-44D0-46F8-8AE3-F91974A2ABBD}" name="Responsável" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{AC92E2DC-DD13-4ED1-A800-0D7BC6D22FEC}" name="Data de Início Prevista" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{EC9E00E2-887E-410C-BA83-944AEDDAFBEB}" name="Data de Término Prevista" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{A18BD8B9-8163-48BB-A9DB-6C81D8B727BA}" name="Duração Estimada (dias)" dataDxfId="41">
       <calculatedColumnFormula>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{013ED01F-B4C2-405A-8C9D-AF38C61E4A03}" name="% de Conclusão" dataDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="8" xr3:uid="{013ED01F-B4C2-405A-8C9D-AF38C61E4A03}" name="% de Conclusão" dataDxfId="40" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
 IF($L$1&gt;Tabela4[[#This Row],[Data de Início Prevista]],($L$1-Tabela4[[#This Row],[Data de Início Prevista]])/(Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]),
 IF($L$1&lt;Tabela4[[#This Row],[Data de Início Prevista]],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3B969088-A833-4A54-91FC-BCBCD8D77079}" name="Status" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{3B969088-A833-4A54-91FC-BCBCD8D77079}" name="Status" dataDxfId="39">
       <calculatedColumnFormula>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
 IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
 IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</calculatedColumnFormula>
@@ -4865,7 +5078,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4916,7 +5129,7 @@
         <v>36</v>
       </c>
       <c r="L1" s="10">
-        <v>45552</v>
+        <v>45566</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -4971,14 +5184,14 @@
         <v>35</v>
       </c>
       <c r="E3" s="2">
-        <v>45539</v>
+        <v>45538</v>
       </c>
       <c r="F3" s="2">
         <v>45541</v>
       </c>
       <c r="G3" s="1">
         <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3">
         <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
@@ -5008,14 +5221,14 @@
         <v>35</v>
       </c>
       <c r="E4" s="2">
-        <v>45542</v>
+        <v>45541</v>
       </c>
       <c r="F4" s="2">
         <v>45545</v>
       </c>
       <c r="G4" s="1">
         <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3">
         <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
@@ -5045,14 +5258,14 @@
         <v>35</v>
       </c>
       <c r="E5" s="2">
-        <v>45546</v>
+        <v>45545</v>
       </c>
       <c r="F5" s="2">
         <v>45547</v>
       </c>
       <c r="G5" s="1">
         <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3">
         <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
@@ -5082,14 +5295,14 @@
         <v>35</v>
       </c>
       <c r="E6" s="2">
-        <v>45548</v>
+        <v>45547</v>
       </c>
       <c r="F6" s="2">
         <v>45549</v>
       </c>
       <c r="G6" s="1">
         <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3">
         <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
@@ -5119,26 +5332,26 @@
         <v>35</v>
       </c>
       <c r="E7" s="2">
-        <v>45550</v>
+        <v>45549</v>
       </c>
       <c r="F7" s="2">
         <v>45553</v>
       </c>
       <c r="G7" s="1">
         <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="3">
         <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
 IF($L$1&gt;Tabela4[[#This Row],[Data de Início Prevista]],($L$1-Tabela4[[#This Row],[Data de Início Prevista]])/(Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]),
 IF($L$1&lt;Tabela4[[#This Row],[Data de Início Prevista]],0)))</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
 IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
 IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</f>
-        <v>Em andamento</v>
+        <v>Concluído</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -5156,26 +5369,26 @@
         <v>35</v>
       </c>
       <c r="E8" s="2">
-        <v>45554</v>
+        <v>45553</v>
       </c>
       <c r="F8" s="2">
-        <v>45558</v>
+        <v>45556</v>
       </c>
       <c r="G8" s="1">
         <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="3">
         <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
 IF($L$1&gt;Tabela4[[#This Row],[Data de Início Prevista]],($L$1-Tabela4[[#This Row],[Data de Início Prevista]])/(Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]),
 IF($L$1&lt;Tabela4[[#This Row],[Data de Início Prevista]],0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
 IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
 IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</f>
-        <v>Não iniciado</v>
+        <v>Concluído</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -5193,26 +5406,26 @@
         <v>35</v>
       </c>
       <c r="E9" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="F9" s="2">
-        <v>45563</v>
+        <v>45561</v>
       </c>
       <c r="G9" s="1">
         <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3">
         <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
 IF($L$1&gt;Tabela4[[#This Row],[Data de Início Prevista]],($L$1-Tabela4[[#This Row],[Data de Início Prevista]])/(Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]),
 IF($L$1&lt;Tabela4[[#This Row],[Data de Início Prevista]],0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
 IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
 IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</f>
-        <v>Não iniciado</v>
+        <v>Concluído</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -5230,26 +5443,26 @@
         <v>35</v>
       </c>
       <c r="E10" s="2">
-        <v>45564</v>
+        <v>45561</v>
       </c>
       <c r="F10" s="2">
-        <v>45564</v>
+        <v>45563</v>
       </c>
       <c r="G10" s="1">
         <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3">
         <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
 IF($L$1&gt;Tabela4[[#This Row],[Data de Início Prevista]],($L$1-Tabela4[[#This Row],[Data de Início Prevista]])/(Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]),
 IF($L$1&lt;Tabela4[[#This Row],[Data de Início Prevista]],0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
 IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
 IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</f>
-        <v>Não iniciado</v>
+        <v>Concluído</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -5267,26 +5480,26 @@
         <v>35</v>
       </c>
       <c r="E11" s="2">
-        <v>45565</v>
+        <v>45563</v>
       </c>
       <c r="F11" s="2">
         <v>45565</v>
       </c>
       <c r="G11" s="1">
         <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="3">
         <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
 IF($L$1&gt;Tabela4[[#This Row],[Data de Início Prevista]],($L$1-Tabela4[[#This Row],[Data de Início Prevista]])/(Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]),
 IF($L$1&lt;Tabela4[[#This Row],[Data de Início Prevista]],0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
 IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
 IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</f>
-        <v>Não iniciado</v>
+        <v>Concluído</v>
       </c>
     </row>
   </sheetData>
@@ -5303,7 +5516,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5346,16 +5559,16 @@
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="14">
         <v>45536</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="13">
         <v>2</v>
       </c>
       <c r="D3" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E3" s="8" t="e">
+      <c r="E3" s="13" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5363,16 +5576,16 @@
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9">
-        <v>45539</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2</v>
+      <c r="B4" s="14">
+        <v>45538</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3</v>
       </c>
       <c r="D4" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E4" s="8" t="e">
+      <c r="E4" s="13" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5380,16 +5593,16 @@
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9">
-        <v>45542</v>
-      </c>
-      <c r="C5" s="8">
-        <v>3</v>
+      <c r="B5" s="14">
+        <v>45541</v>
+      </c>
+      <c r="C5" s="13">
+        <v>4</v>
       </c>
       <c r="D5" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E5" s="8" t="e">
+      <c r="E5" s="13" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5397,16 +5610,16 @@
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9">
-        <v>45546</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
+      <c r="B6" s="14">
+        <v>45545</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2</v>
       </c>
       <c r="D6" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E6" s="8" t="e">
+      <c r="E6" s="13" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5414,16 +5627,16 @@
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9">
-        <v>45548</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
+      <c r="B7" s="14">
+        <v>45547</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2</v>
       </c>
       <c r="D7" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E7" s="8" t="e">
+      <c r="E7" s="13" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5431,85 +5644,85 @@
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9" t="e">
+      <c r="B8" s="14">
+        <v>45549</v>
+      </c>
+      <c r="C8" s="13">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C8" s="8" t="e">
+      <c r="E8" s="13" t="e">
         <v>#N/A</v>
-      </c>
-      <c r="D8" s="9">
-        <v>45550</v>
-      </c>
-      <c r="E8" s="8">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="9" t="e">
+      <c r="B9" s="14">
+        <v>45553</v>
+      </c>
+      <c r="C9" s="13">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C9" s="8" t="e">
+      <c r="E9" s="13" t="e">
         <v>#N/A</v>
-      </c>
-      <c r="D9" s="9">
-        <v>45554</v>
-      </c>
-      <c r="E9" s="8">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="9" t="e">
+      <c r="B10" s="14">
+        <v>45556</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C10" s="8" t="e">
+      <c r="E10" s="13" t="e">
         <v>#N/A</v>
-      </c>
-      <c r="D10" s="9">
-        <v>45559</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="9" t="e">
+      <c r="B11" s="14">
+        <v>45561</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C11" s="8" t="e">
+      <c r="E11" s="13" t="e">
         <v>#N/A</v>
-      </c>
-      <c r="D11" s="9">
-        <v>45564</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="9" t="e">
+      <c r="B12" s="14">
+        <v>45563</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C12" s="8" t="e">
+      <c r="E12" s="13" t="e">
         <v>#N/A</v>
-      </c>
-      <c r="D12" s="9">
-        <v>45565</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -5551,7 +5764,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/references/schedule.xlsx
+++ b/references/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_5_modelo_clusterizacao_classificacao_app_delivery\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE166F5-3D78-4297-9EB1-C9EFCF6B892A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7818B2-9D22-4634-973D-85CAFBDD1CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9B6D4990-42CD-4CA7-863E-3F7B63FF2202}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B6D4990-42CD-4CA7-863E-3F7B63FF2202}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId4"/>
+    <pivotCache cacheId="15" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -162,7 +162,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd/mm;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -208,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -231,12 +231,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -272,10 +281,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -283,111 +295,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="19">
     <dxf>
-      <numFmt numFmtId="167" formatCode="[$-416]d\-mmm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-416]d\-mmm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/m;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/m;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="dd/mm;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -486,11 +396,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Linha do Tempo 1" pivot="0" table="0" count="8" xr9:uid="{52153AD7-0907-468F-A228-FC343C1E76FF}">
-      <tableStyleElement type="wholeTable" dxfId="52"/>
-      <tableStyleElement type="headerRow" dxfId="51"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
     </tableStyle>
     <tableStyle name="Estilo de Segmentação de Dados 1" pivot="0" table="0" count="3" xr9:uid="{FDE6E4C7-9916-4C60-92F6-8C897BF1D2DF}">
-      <tableStyleElement type="wholeTable" dxfId="50"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2099,7 +2009,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2160,6 +2070,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-6D18-4A0D-AA6E-2EE47E8B7EFC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -2234,10 +2161,10 @@
                   <c:v>Challenge</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Data Sourcing</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Project Details</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Data Sourcing</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Data Cleaning</c:v>
@@ -2396,10 +2323,10 @@
                   <c:v>Challenge</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Data Sourcing</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Project Details</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Data Sourcing</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Data Cleaning</c:v>
@@ -2556,10 +2483,10 @@
                   <c:v>Challenge</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Data Sourcing</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Project Details</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Data Sourcing</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Data Cleaning</c:v>
@@ -2720,10 +2647,10 @@
                   <c:v>Challenge</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Data Sourcing</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Project Details</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Data Sourcing</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Data Cleaning</c:v>
@@ -3834,7 +3761,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matheus Resende" refreshedDate="45550.609573726855" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{8A3E0842-8E5A-489C-BFB1-EDEEAC84A9EE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matheus Resende" refreshedDate="45550.768018518516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{8A3E0842-8E5A-489C-BFB1-EDEEAC84A9EE}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela4"/>
   </cacheSource>
@@ -3843,10 +3770,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
     </cacheField>
     <cacheField name="Nome da Tarefa" numFmtId="0">
-      <sharedItems count="26">
+      <sharedItems count="27">
         <s v="Challenge"/>
+        <s v="Data Sourcing"/>
         <s v="Project Details"/>
-        <s v="Data Sourcing"/>
         <s v="Data Cleaning"/>
         <s v="Exploratory Data Analysis (EDA)"/>
         <s v="Feature Engineering"/>
@@ -3854,6 +3781,7 @@
         <s v="Models Training"/>
         <s v="Models Evaluation"/>
         <s v="Deployment"/>
+        <s v="vdfvd" u="1"/>
         <s v="Levantamento" u="1"/>
         <s v="Design" u="1"/>
         <s v="Desenvolvimento" u="1"/>
@@ -4357,7 +4285,7 @@
   <r>
     <n v="2"/>
     <x v="1"/>
-    <s v="Detalhamento do Projeto"/>
+    <s v="Obtenção dos Dados"/>
     <s v="Cientista de Dados"/>
     <x v="1"/>
     <d v="2024-09-06T00:00:00"/>
@@ -4368,7 +4296,7 @@
   <r>
     <n v="3"/>
     <x v="2"/>
-    <s v="Obtenção dos Dados"/>
+    <s v="Detalhamento do Projeto"/>
     <s v="Cientista de Dados"/>
     <x v="2"/>
     <d v="2024-09-10T00:00:00"/>
@@ -4457,28 +4385,28 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00757DE2-1DBA-4008-9A82-BBC123A3CF4C}" name="Tabela dinâmica5" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00757DE2-1DBA-4008-9A82-BBC123A3CF4C}" name="Tabela dinâmica5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="A2:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="27">
+      <items count="28">
+        <item m="1" x="13"/>
         <item m="1" x="12"/>
-        <item m="1" x="11"/>
-        <item m="1" x="18"/>
-        <item m="1" x="16"/>
-        <item m="1" x="22"/>
         <item m="1" x="19"/>
-        <item m="1" x="14"/>
+        <item m="1" x="17"/>
         <item m="1" x="23"/>
-        <item m="1" x="10"/>
         <item m="1" x="20"/>
-        <item m="1" x="17"/>
-        <item m="1" x="21"/>
-        <item m="1" x="13"/>
         <item m="1" x="15"/>
         <item m="1" x="24"/>
+        <item m="1" x="11"/>
+        <item m="1" x="21"/>
+        <item m="1" x="18"/>
+        <item m="1" x="22"/>
+        <item m="1" x="14"/>
+        <item m="1" x="16"/>
         <item m="1" x="25"/>
+        <item m="1" x="26"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4489,6 +4417,7 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
+        <item m="1" x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4617,13 +4546,13 @@
     </i>
   </colItems>
   <dataFields count="4">
-    <dataField name="Soma de DATA REALIZADA" fld="11" baseField="0" baseItem="0" numFmtId="168"/>
+    <dataField name="Soma de DATA REALIZADA" fld="11" baseField="0" baseItem="0" numFmtId="164"/>
     <dataField name="Soma de DURAÇÃO REALIZADA" fld="12" baseField="0" baseItem="0"/>
     <dataField name="Soma de DATA PREVISTA" fld="13" baseField="0" baseItem="0" numFmtId="14"/>
     <dataField name="Soma de DURAÇÃO PREVISTA" fld="14" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="31">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4632,10 +4561,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -4645,7 +4574,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4654,7 +4583,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4727,26 +4656,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}" name="Tabela4" displayName="Tabela4" ref="A1:I11" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}" name="Tabela4" displayName="Tabela4" ref="A1:I11" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:I11" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4935668C-20D6-4C22-879A-3659A8472489}" name="ID Tarefa" dataDxfId="47">
+    <tableColumn id="1" xr3:uid="{4935668C-20D6-4C22-879A-3659A8472489}" name="ID Tarefa" dataDxfId="13">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E5AC6DCD-2443-40D5-B1A6-0A271666E5FF}" name="Nome da Tarefa" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{B241719C-F57F-47B5-A51F-A3BC561CE106}" name="Descrição da Tarefa" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{14F0C3FA-44D0-46F8-8AE3-F91974A2ABBD}" name="Responsável" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{AC92E2DC-DD13-4ED1-A800-0D7BC6D22FEC}" name="Data de Início Prevista" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{EC9E00E2-887E-410C-BA83-944AEDDAFBEB}" name="Data de Término Prevista" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{A18BD8B9-8163-48BB-A9DB-6C81D8B727BA}" name="Duração Estimada (dias)" dataDxfId="41">
+    <tableColumn id="2" xr3:uid="{E5AC6DCD-2443-40D5-B1A6-0A271666E5FF}" name="Nome da Tarefa" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{B241719C-F57F-47B5-A51F-A3BC561CE106}" name="Descrição da Tarefa" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{14F0C3FA-44D0-46F8-8AE3-F91974A2ABBD}" name="Responsável" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{AC92E2DC-DD13-4ED1-A800-0D7BC6D22FEC}" name="Data de Início Prevista" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{EC9E00E2-887E-410C-BA83-944AEDDAFBEB}" name="Data de Término Prevista" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{A18BD8B9-8163-48BB-A9DB-6C81D8B727BA}" name="Duração Estimada (dias)" dataDxfId="7">
       <calculatedColumnFormula>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{013ED01F-B4C2-405A-8C9D-AF38C61E4A03}" name="% de Conclusão" dataDxfId="40" dataCellStyle="Porcentagem">
+    <tableColumn id="8" xr3:uid="{013ED01F-B4C2-405A-8C9D-AF38C61E4A03}" name="% de Conclusão" dataDxfId="6" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
 IF($L$1&gt;Tabela4[[#This Row],[Data de Início Prevista]],($L$1-Tabela4[[#This Row],[Data de Início Prevista]])/(Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]),
 IF($L$1&lt;Tabela4[[#This Row],[Data de Início Prevista]],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3B969088-A833-4A54-91FC-BCBCD8D77079}" name="Status" dataDxfId="39">
+    <tableColumn id="9" xr3:uid="{3B969088-A833-4A54-91FC-BCBCD8D77079}" name="Status" dataDxfId="5">
       <calculatedColumnFormula>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
 IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
 IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</calculatedColumnFormula>
@@ -5076,9 +5005,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5175,10 +5104,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>35</v>
@@ -5211,11 +5140,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
+      <c r="B4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>35</v>
@@ -5516,7 +5445,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5559,50 +5488,50 @@
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>45536</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="15">
         <v>2</v>
       </c>
       <c r="D3" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E3" s="13" t="e">
+      <c r="E3" s="15" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="14">
+        <v>17</v>
+      </c>
+      <c r="B4" s="13">
         <v>45538</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="15">
         <v>3</v>
       </c>
       <c r="D4" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E4" s="13" t="e">
+      <c r="E4" s="15" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="14">
+        <v>16</v>
+      </c>
+      <c r="B5" s="13">
         <v>45541</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="15">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E5" s="13" t="e">
+      <c r="E5" s="15" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5610,16 +5539,16 @@
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>45545</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="15">
         <v>2</v>
       </c>
       <c r="D6" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E6" s="13" t="e">
+      <c r="E6" s="15" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5627,16 +5556,16 @@
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>45547</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="15">
         <v>2</v>
       </c>
       <c r="D7" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E7" s="13" t="e">
+      <c r="E7" s="15" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5644,16 +5573,16 @@
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>45549</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="15">
         <v>4</v>
       </c>
       <c r="D8" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E8" s="13" t="e">
+      <c r="E8" s="15" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5661,16 +5590,16 @@
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>45553</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="15">
         <v>3</v>
       </c>
       <c r="D9" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E9" s="13" t="e">
+      <c r="E9" s="15" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5678,16 +5607,16 @@
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>45556</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="15">
         <v>5</v>
       </c>
       <c r="D10" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E10" s="13" t="e">
+      <c r="E10" s="15" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5695,16 +5624,16 @@
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>45561</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="15">
         <v>2</v>
       </c>
       <c r="D11" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E11" s="13" t="e">
+      <c r="E11" s="15" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5712,16 +5641,16 @@
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>45563</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="15">
         <v>2</v>
       </c>
       <c r="D12" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E12" s="13" t="e">
+      <c r="E12" s="15" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5763,8 +5692,8 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/references/schedule.xlsx
+++ b/references/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_5_modelo_clusterizacao_classificacao_app_delivery\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7818B2-9D22-4634-973D-85CAFBDD1CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FBDE6B-C58A-4C92-9623-A78E118DC103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B6D4990-42CD-4CA7-863E-3F7B63FF2202}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9B6D4990-42CD-4CA7-863E-3F7B63FF2202}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -97,9 +97,6 @@
     <t>Data Sourcing</t>
   </si>
   <si>
-    <t>Data Cleaning</t>
-  </si>
-  <si>
     <t>Exploratory Data Analysis (EDA)</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Para ajustar o gráfico de Gantt, basta alterar o campo calculado chamado DATA dessa tabela dinâmica para a data desejada</t>
+  </si>
+  <si>
+    <t>Data Processing</t>
   </si>
 </sst>
 </file>
@@ -284,7 +284,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -295,7 +295,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="29">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm;@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm;@"/>
     </dxf>
@@ -396,11 +426,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Linha do Tempo 1" pivot="0" table="0" count="8" xr9:uid="{52153AD7-0907-468F-A228-FC343C1E76FF}">
-      <tableStyleElement type="wholeTable" dxfId="18"/>
-      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
     </tableStyle>
     <tableStyle name="Estilo de Segmentação de Dados 1" pivot="0" table="0" count="3" xr9:uid="{FDE6E4C7-9916-4C60-92F6-8C897BF1D2DF}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2167,7 +2197,7 @@
                   <c:v>Project Details</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Data Cleaning</c:v>
+                  <c:v>Data Processing</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Exploratory Data Analysis (EDA)</c:v>
@@ -2329,7 +2359,7 @@
                   <c:v>Project Details</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Data Cleaning</c:v>
+                  <c:v>Data Processing</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Exploratory Data Analysis (EDA)</c:v>
@@ -2489,7 +2519,7 @@
                   <c:v>Project Details</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Data Cleaning</c:v>
+                  <c:v>Data Processing</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Exploratory Data Analysis (EDA)</c:v>
@@ -2653,7 +2683,7 @@
                   <c:v>Project Details</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Data Cleaning</c:v>
+                  <c:v>Data Processing</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Exploratory Data Analysis (EDA)</c:v>
@@ -3761,7 +3791,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matheus Resende" refreshedDate="45550.768018518516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{8A3E0842-8E5A-489C-BFB1-EDEEAC84A9EE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matheus Resende" refreshedDate="45550.97907789352" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{8A3E0842-8E5A-489C-BFB1-EDEEAC84A9EE}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela4"/>
   </cacheSource>
@@ -3770,17 +3800,18 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
     </cacheField>
     <cacheField name="Nome da Tarefa" numFmtId="0">
-      <sharedItems count="27">
+      <sharedItems count="28">
         <s v="Challenge"/>
         <s v="Data Sourcing"/>
         <s v="Project Details"/>
-        <s v="Data Cleaning"/>
+        <s v="Data Processing"/>
         <s v="Exploratory Data Analysis (EDA)"/>
         <s v="Feature Engineering"/>
         <s v="Models Selection"/>
         <s v="Models Training"/>
         <s v="Models Evaluation"/>
         <s v="Deployment"/>
+        <s v="Data Cleaning" u="1"/>
         <s v="vdfvd" u="1"/>
         <s v="Levantamento" u="1"/>
         <s v="Design" u="1"/>
@@ -4385,31 +4416,32 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00757DE2-1DBA-4008-9A82-BBC123A3CF4C}" name="Tabela dinâmica5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00757DE2-1DBA-4008-9A82-BBC123A3CF4C}" name="Tabela dinâmica5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="A2:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="28">
+      <items count="29">
+        <item m="1" x="14"/>
         <item m="1" x="13"/>
-        <item m="1" x="12"/>
-        <item m="1" x="19"/>
-        <item m="1" x="17"/>
-        <item m="1" x="23"/>
         <item m="1" x="20"/>
-        <item m="1" x="15"/>
+        <item m="1" x="18"/>
         <item m="1" x="24"/>
-        <item m="1" x="11"/>
         <item m="1" x="21"/>
-        <item m="1" x="18"/>
-        <item m="1" x="22"/>
-        <item m="1" x="14"/>
         <item m="1" x="16"/>
         <item m="1" x="25"/>
+        <item m="1" x="12"/>
+        <item m="1" x="22"/>
+        <item m="1" x="19"/>
+        <item m="1" x="23"/>
+        <item m="1" x="15"/>
+        <item m="1" x="17"/>
         <item m="1" x="26"/>
+        <item m="1" x="27"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item m="1" x="10"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
@@ -4417,7 +4449,7 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
-        <item m="1" x="10"/>
+        <item m="1" x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4507,9 +4539,6 @@
       <x v="18"/>
     </i>
     <i>
-      <x v="19"/>
-    </i>
-    <i>
       <x v="20"/>
     </i>
     <i>
@@ -4526,6 +4555,9 @@
     </i>
     <i>
       <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -4552,7 +4584,7 @@
     <dataField name="Soma de DURAÇÃO PREVISTA" fld="14" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="4">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4561,10 +4593,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -4574,7 +4606,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4583,7 +4615,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4656,26 +4688,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}" name="Tabela4" displayName="Tabela4" ref="A1:I11" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}" name="Tabela4" displayName="Tabela4" ref="A1:I11" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:I11" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4935668C-20D6-4C22-879A-3659A8472489}" name="ID Tarefa" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{4935668C-20D6-4C22-879A-3659A8472489}" name="ID Tarefa" dataDxfId="23">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E5AC6DCD-2443-40D5-B1A6-0A271666E5FF}" name="Nome da Tarefa" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{B241719C-F57F-47B5-A51F-A3BC561CE106}" name="Descrição da Tarefa" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{14F0C3FA-44D0-46F8-8AE3-F91974A2ABBD}" name="Responsável" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{AC92E2DC-DD13-4ED1-A800-0D7BC6D22FEC}" name="Data de Início Prevista" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{EC9E00E2-887E-410C-BA83-944AEDDAFBEB}" name="Data de Término Prevista" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{A18BD8B9-8163-48BB-A9DB-6C81D8B727BA}" name="Duração Estimada (dias)" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{E5AC6DCD-2443-40D5-B1A6-0A271666E5FF}" name="Nome da Tarefa" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{B241719C-F57F-47B5-A51F-A3BC561CE106}" name="Descrição da Tarefa" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{14F0C3FA-44D0-46F8-8AE3-F91974A2ABBD}" name="Responsável" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{AC92E2DC-DD13-4ED1-A800-0D7BC6D22FEC}" name="Data de Início Prevista" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{EC9E00E2-887E-410C-BA83-944AEDDAFBEB}" name="Data de Término Prevista" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{A18BD8B9-8163-48BB-A9DB-6C81D8B727BA}" name="Duração Estimada (dias)" dataDxfId="17">
       <calculatedColumnFormula>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{013ED01F-B4C2-405A-8C9D-AF38C61E4A03}" name="% de Conclusão" dataDxfId="6" dataCellStyle="Porcentagem">
+    <tableColumn id="8" xr3:uid="{013ED01F-B4C2-405A-8C9D-AF38C61E4A03}" name="% de Conclusão" dataDxfId="16" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
 IF($L$1&gt;Tabela4[[#This Row],[Data de Início Prevista]],($L$1-Tabela4[[#This Row],[Data de Início Prevista]])/(Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]),
 IF($L$1&lt;Tabela4[[#This Row],[Data de Início Prevista]],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3B969088-A833-4A54-91FC-BCBCD8D77079}" name="Status" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{3B969088-A833-4A54-91FC-BCBCD8D77079}" name="Status" dataDxfId="15">
       <calculatedColumnFormula>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
 IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
 IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</calculatedColumnFormula>
@@ -5005,7 +5037,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -5055,7 +5087,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="10">
         <v>45566</v>
@@ -5070,10 +5102,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2">
         <v>45536</v>
@@ -5107,10 +5139,10 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2">
         <v>45538</v>
@@ -5144,10 +5176,10 @@
         <v>16</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2">
         <v>45541</v>
@@ -5178,13 +5210,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2">
         <v>45545</v>
@@ -5215,13 +5247,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2">
         <v>45547</v>
@@ -5252,13 +5284,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2">
         <v>45549</v>
@@ -5289,13 +5321,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2">
         <v>45553</v>
@@ -5326,13 +5358,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2">
         <v>45556</v>
@@ -5363,13 +5395,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2">
         <v>45561</v>
@@ -5400,13 +5432,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E11" s="2">
         <v>45563</v>
@@ -5445,7 +5477,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5537,7 +5569,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B6" s="13">
         <v>45545</v>
@@ -5554,7 +5586,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="13">
         <v>45547</v>
@@ -5571,7 +5603,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="13">
         <v>45549</v>
@@ -5588,7 +5620,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="13">
         <v>45553</v>
@@ -5605,7 +5637,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="13">
         <v>45556</v>
@@ -5622,7 +5654,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="13">
         <v>45561</v>
@@ -5639,7 +5671,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="13">
         <v>45563</v>
@@ -5668,7 +5700,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -5692,7 +5724,7 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/references/schedule.xlsx
+++ b/references/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_5_modelo_clusterizacao_classificacao_app_delivery\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FBDE6B-C58A-4C92-9623-A78E118DC103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47819B2B-C1CC-4310-9753-CA1C50A5CA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9B6D4990-42CD-4CA7-863E-3F7B63FF2202}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="10" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Nome da Tarefa</t>
   </si>
@@ -100,18 +100,6 @@
     <t>Exploratory Data Analysis (EDA)</t>
   </si>
   <si>
-    <t>Feature Engineering</t>
-  </si>
-  <si>
-    <t>Models Selection</t>
-  </si>
-  <si>
-    <t>Models Training</t>
-  </si>
-  <si>
-    <t>Models Evaluation</t>
-  </si>
-  <si>
     <t>Deployment</t>
   </si>
   <si>
@@ -130,18 +118,6 @@
     <t>Análise Exploratória</t>
   </si>
   <si>
-    <t>Modelagem dos Dados</t>
-  </si>
-  <si>
-    <t>Seleção dos Modelos</t>
-  </si>
-  <si>
-    <t>Treinamento dos Modelos</t>
-  </si>
-  <si>
-    <t>Validação do Modelo</t>
-  </si>
-  <si>
     <t>Deploy em Produção</t>
   </si>
   <si>
@@ -155,6 +131,18 @@
   </si>
   <si>
     <t>Data Processing</t>
+  </si>
+  <si>
+    <t>Model Selection</t>
+  </si>
+  <si>
+    <t>Model Training</t>
+  </si>
+  <si>
+    <t>Seleção do Modelo</t>
+  </si>
+  <si>
+    <t>Treinamento do Modelo</t>
   </si>
 </sst>
 </file>
@@ -295,7 +283,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="34">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm;@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -426,11 +429,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Linha do Tempo 1" pivot="0" table="0" count="8" xr9:uid="{52153AD7-0907-468F-A228-FC343C1E76FF}">
-      <tableStyleElement type="wholeTable" dxfId="28"/>
-      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
     </tableStyle>
     <tableStyle name="Estilo de Segmentação de Dados 1" pivot="0" table="0" count="3" xr9:uid="{FDE6E4C7-9916-4C60-92F6-8C897BF1D2DF}">
-      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="wholeTable" dxfId="31"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2186,7 +2189,7 @@
             <c:strRef>
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Challenge</c:v>
                 </c:pt>
@@ -2203,18 +2206,12 @@
                   <c:v>Exploratory Data Analysis (EDA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Feature Engineering</c:v>
+                  <c:v>Model Selection</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Models Selection</c:v>
+                  <c:v>Model Training</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Models Training</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Models Evaluation</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>Deployment</c:v>
                 </c:pt>
               </c:strCache>
@@ -2225,7 +2222,7 @@
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm;@</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>45536</c:v>
                 </c:pt>
@@ -2236,24 +2233,18 @@
                   <c:v>45541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45545</c:v>
+                  <c:v>45543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45547</c:v>
+                  <c:v>45546</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>45549</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45553</c:v>
+                  <c:v>45556</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45556</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45561</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>45563</c:v>
                 </c:pt>
               </c:numCache>
@@ -2348,7 +2339,7 @@
             <c:strRef>
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Challenge</c:v>
                 </c:pt>
@@ -2365,18 +2356,12 @@
                   <c:v>Exploratory Data Analysis (EDA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Feature Engineering</c:v>
+                  <c:v>Model Selection</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Models Selection</c:v>
+                  <c:v>Model Training</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Models Training</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Models Evaluation</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>Deployment</c:v>
                 </c:pt>
               </c:strCache>
@@ -2387,7 +2372,7 @@
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2395,27 +2380,21 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2508,7 +2487,7 @@
             <c:strRef>
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Challenge</c:v>
                 </c:pt>
@@ -2525,18 +2504,12 @@
                   <c:v>Exploratory Data Analysis (EDA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Feature Engineering</c:v>
+                  <c:v>Model Selection</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Models Selection</c:v>
+                  <c:v>Model Training</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Models Training</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Models Evaluation</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>Deployment</c:v>
                 </c:pt>
               </c:strCache>
@@ -2547,7 +2520,7 @@
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2570,12 +2543,6 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -2672,7 +2639,7 @@
             <c:strRef>
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Challenge</c:v>
                 </c:pt>
@@ -2689,18 +2656,12 @@
                   <c:v>Exploratory Data Analysis (EDA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Feature Engineering</c:v>
+                  <c:v>Model Selection</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Models Selection</c:v>
+                  <c:v>Model Training</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Models Training</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Models Evaluation</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>Deployment</c:v>
                 </c:pt>
               </c:strCache>
@@ -2711,7 +2672,7 @@
               <c:f>'Pivot Table'!$A$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2734,12 +2695,6 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -3791,26 +3746,28 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matheus Resende" refreshedDate="45550.97907789352" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{8A3E0842-8E5A-489C-BFB1-EDEEAC84A9EE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matheus Resende" refreshedDate="45565.573805555556" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{8A3E0842-8E5A-489C-BFB1-EDEEAC84A9EE}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela4"/>
   </cacheSource>
   <cacheFields count="17">
     <cacheField name="ID Tarefa" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
     </cacheField>
     <cacheField name="Nome da Tarefa" numFmtId="0">
-      <sharedItems count="28">
+      <sharedItems count="30">
         <s v="Challenge"/>
         <s v="Data Sourcing"/>
         <s v="Project Details"/>
         <s v="Data Processing"/>
         <s v="Exploratory Data Analysis (EDA)"/>
-        <s v="Feature Engineering"/>
-        <s v="Models Selection"/>
-        <s v="Models Training"/>
-        <s v="Models Evaluation"/>
+        <s v="Model Selection"/>
+        <s v="Model Training"/>
         <s v="Deployment"/>
+        <s v="Feature Engineering" u="1"/>
+        <s v="Models Selection" u="1"/>
+        <s v="Models Training" u="1"/>
+        <s v="Models Evaluation" u="1"/>
         <s v="Data Cleaning" u="1"/>
         <s v="vdfvd" u="1"/>
         <s v="Levantamento" u="1"/>
@@ -3838,19 +3795,20 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Data de Início Prevista" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-04-01T00:00:00" maxDate="2024-10-16T00:00:00" count="35">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-04-01T00:00:00" maxDate="2024-10-16T00:00:00" count="36">
         <d v="2024-09-01T00:00:00"/>
         <d v="2024-09-03T00:00:00"/>
         <d v="2024-09-06T00:00:00"/>
-        <d v="2024-09-10T00:00:00"/>
-        <d v="2024-09-12T00:00:00"/>
+        <d v="2024-09-08T00:00:00"/>
+        <d v="2024-09-11T00:00:00"/>
         <d v="2024-09-14T00:00:00"/>
-        <d v="2024-09-18T00:00:00"/>
         <d v="2024-09-21T00:00:00"/>
-        <d v="2024-09-26T00:00:00"/>
         <d v="2024-09-28T00:00:00"/>
+        <d v="2024-09-10T00:00:00" u="1"/>
+        <d v="2024-09-12T00:00:00" u="1"/>
+        <d v="2024-09-18T00:00:00" u="1"/>
+        <d v="2024-09-26T00:00:00" u="1"/>
         <d v="2024-09-07T00:00:00" u="1"/>
-        <d v="2024-09-11T00:00:00" u="1"/>
         <d v="2024-09-13T00:00:00" u="1"/>
         <d v="2024-09-15T00:00:00" u="1"/>
         <d v="2024-09-19T00:00:00" u="1"/>
@@ -3881,7 +3839,7 @@
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-09-03T00:00:00" maxDate="2024-10-01T00:00:00"/>
     </cacheField>
     <cacheField name="Duração Estimada (dias)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="5"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="7"/>
     </cacheField>
     <cacheField name="% de Conclusão" numFmtId="9">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
@@ -4301,7 +4259,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -4330,8 +4288,8 @@
     <s v="Detalhamento do Projeto"/>
     <s v="Cientista de Dados"/>
     <x v="2"/>
-    <d v="2024-09-10T00:00:00"/>
-    <n v="4"/>
+    <d v="2024-09-08T00:00:00"/>
+    <n v="2"/>
     <n v="1"/>
     <s v="Concluído"/>
   </r>
@@ -4341,8 +4299,8 @@
     <s v="Tratamento dos Dados"/>
     <s v="Cientista de Dados"/>
     <x v="3"/>
-    <d v="2024-09-12T00:00:00"/>
-    <n v="2"/>
+    <d v="2024-09-11T00:00:00"/>
+    <n v="3"/>
     <n v="1"/>
     <s v="Concluído"/>
   </r>
@@ -4353,60 +4311,38 @@
     <s v="Cientista de Dados"/>
     <x v="4"/>
     <d v="2024-09-14T00:00:00"/>
-    <n v="2"/>
+    <n v="3"/>
     <n v="1"/>
     <s v="Concluído"/>
   </r>
   <r>
     <n v="6"/>
     <x v="5"/>
-    <s v="Modelagem dos Dados"/>
+    <s v="Seleção do Modelo"/>
     <s v="Cientista de Dados"/>
     <x v="5"/>
-    <d v="2024-09-18T00:00:00"/>
-    <n v="4"/>
+    <d v="2024-09-21T00:00:00"/>
+    <n v="7"/>
     <n v="1"/>
     <s v="Concluído"/>
   </r>
   <r>
     <n v="7"/>
     <x v="6"/>
-    <s v="Seleção dos Modelos"/>
+    <s v="Treinamento do Modelo"/>
     <s v="Cientista de Dados"/>
     <x v="6"/>
-    <d v="2024-09-21T00:00:00"/>
-    <n v="3"/>
+    <d v="2024-09-28T00:00:00"/>
+    <n v="7"/>
     <n v="1"/>
     <s v="Concluído"/>
   </r>
   <r>
     <n v="8"/>
     <x v="7"/>
-    <s v="Treinamento dos Modelos"/>
+    <s v="Deploy em Produção"/>
     <s v="Cientista de Dados"/>
     <x v="7"/>
-    <d v="2024-09-26T00:00:00"/>
-    <n v="5"/>
-    <n v="1"/>
-    <s v="Concluído"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <x v="8"/>
-    <s v="Validação do Modelo"/>
-    <s v="Cientista de Dados"/>
-    <x v="8"/>
-    <d v="2024-09-28T00:00:00"/>
-    <n v="2"/>
-    <n v="1"/>
-    <s v="Concluído"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <x v="9"/>
-    <s v="Deploy em Produção"/>
-    <s v="Cientista de Dados"/>
-    <x v="9"/>
     <d v="2024-09-30T00:00:00"/>
     <n v="2"/>
     <n v="1"/>
@@ -4416,82 +4352,85 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00757DE2-1DBA-4008-9A82-BBC123A3CF4C}" name="Tabela dinâmica5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="A2:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00757DE2-1DBA-4008-9A82-BBC123A3CF4C}" name="Tabela dinâmica5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="A2:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="29">
+      <items count="31">
+        <item m="1" x="16"/>
+        <item m="1" x="15"/>
+        <item m="1" x="22"/>
+        <item m="1" x="20"/>
+        <item m="1" x="26"/>
+        <item m="1" x="23"/>
+        <item m="1" x="18"/>
+        <item m="1" x="27"/>
         <item m="1" x="14"/>
-        <item m="1" x="13"/>
-        <item m="1" x="20"/>
-        <item m="1" x="18"/>
         <item m="1" x="24"/>
         <item m="1" x="21"/>
-        <item m="1" x="16"/>
         <item m="1" x="25"/>
-        <item m="1" x="12"/>
-        <item m="1" x="22"/>
+        <item m="1" x="17"/>
         <item m="1" x="19"/>
-        <item m="1" x="23"/>
-        <item m="1" x="15"/>
-        <item m="1" x="17"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="10"/>
+        <item m="1" x="12"/>
         <item x="3"/>
         <item x="4"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item m="1" x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0">
-      <items count="36">
-        <item m="1" x="29"/>
+      <items count="37">
         <item m="1" x="30"/>
-        <item m="1" x="26"/>
+        <item m="1" x="31"/>
         <item m="1" x="27"/>
         <item m="1" x="28"/>
-        <item m="1" x="21"/>
+        <item m="1" x="29"/>
         <item m="1" x="22"/>
         <item m="1" x="23"/>
         <item m="1" x="24"/>
         <item m="1" x="25"/>
-        <item m="1" x="31"/>
+        <item m="1" x="26"/>
+        <item m="1" x="32"/>
         <item x="2"/>
-        <item m="1" x="32"/>
         <item m="1" x="33"/>
         <item m="1" x="34"/>
+        <item m="1" x="35"/>
         <item x="0"/>
+        <item m="1" x="19"/>
+        <item m="1" x="12"/>
+        <item x="4"/>
+        <item m="1" x="9"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="20"/>
         <item m="1" x="18"/>
+        <item m="1" x="21"/>
+        <item m="1" x="13"/>
+        <item m="1" x="17"/>
+        <item m="1" x="16"/>
+        <item x="1"/>
+        <item m="1" x="8"/>
+        <item x="5"/>
         <item m="1" x="10"/>
+        <item x="6"/>
         <item m="1" x="11"/>
-        <item x="4"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="19"/>
-        <item m="1" x="17"/>
-        <item m="1" x="20"/>
-        <item m="1" x="12"/>
-        <item m="1" x="16"/>
-        <item m="1" x="15"/>
-        <item x="1"/>
+        <item x="7"/>
         <item x="3"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4528,7 +4467,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="8">
     <i>
       <x v="16"/>
     </i>
@@ -4545,19 +4484,13 @@
       <x v="21"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="27"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="28"/>
     </i>
     <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
+      <x v="29"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -4584,7 +4517,7 @@
     <dataField name="Soma de DURAÇÃO PREVISTA" fld="14" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="14">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4593,10 +4526,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -4606,7 +4539,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4615,7 +4548,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4688,26 +4621,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}" name="Tabela4" displayName="Tabela4" ref="A1:I11" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:I11" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}" name="Tabela4" displayName="Tabela4" ref="A1:I9" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:I9" xr:uid="{DA424A6B-A8B2-469F-A313-19894821C85F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4935668C-20D6-4C22-879A-3659A8472489}" name="ID Tarefa" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{4935668C-20D6-4C22-879A-3659A8472489}" name="ID Tarefa" dataDxfId="28">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E5AC6DCD-2443-40D5-B1A6-0A271666E5FF}" name="Nome da Tarefa" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{B241719C-F57F-47B5-A51F-A3BC561CE106}" name="Descrição da Tarefa" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{14F0C3FA-44D0-46F8-8AE3-F91974A2ABBD}" name="Responsável" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{AC92E2DC-DD13-4ED1-A800-0D7BC6D22FEC}" name="Data de Início Prevista" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{EC9E00E2-887E-410C-BA83-944AEDDAFBEB}" name="Data de Término Prevista" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{A18BD8B9-8163-48BB-A9DB-6C81D8B727BA}" name="Duração Estimada (dias)" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{E5AC6DCD-2443-40D5-B1A6-0A271666E5FF}" name="Nome da Tarefa" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{B241719C-F57F-47B5-A51F-A3BC561CE106}" name="Descrição da Tarefa" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{14F0C3FA-44D0-46F8-8AE3-F91974A2ABBD}" name="Responsável" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{AC92E2DC-DD13-4ED1-A800-0D7BC6D22FEC}" name="Data de Início Prevista" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{EC9E00E2-887E-410C-BA83-944AEDDAFBEB}" name="Data de Término Prevista" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{A18BD8B9-8163-48BB-A9DB-6C81D8B727BA}" name="Duração Estimada (dias)" dataDxfId="22">
       <calculatedColumnFormula>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{013ED01F-B4C2-405A-8C9D-AF38C61E4A03}" name="% de Conclusão" dataDxfId="16" dataCellStyle="Porcentagem">
+    <tableColumn id="8" xr3:uid="{013ED01F-B4C2-405A-8C9D-AF38C61E4A03}" name="% de Conclusão" dataDxfId="21" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
 IF($L$1&gt;Tabela4[[#This Row],[Data de Início Prevista]],($L$1-Tabela4[[#This Row],[Data de Início Prevista]])/(Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]),
 IF($L$1&lt;Tabela4[[#This Row],[Data de Início Prevista]],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3B969088-A833-4A54-91FC-BCBCD8D77079}" name="Status" dataDxfId="15">
+    <tableColumn id="9" xr3:uid="{3B969088-A833-4A54-91FC-BCBCD8D77079}" name="Status" dataDxfId="20">
       <calculatedColumnFormula>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
 IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
 IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</calculatedColumnFormula>
@@ -5035,11 +4968,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3E397D-2BA9-4AFB-B32C-FFE2506EB2F2}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5087,7 +5020,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="L1" s="10">
         <v>45566</v>
@@ -5095,17 +5028,17 @@
     </row>
     <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <f t="shared" ref="A2:A11" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A9" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2">
         <v>45536</v>
@@ -5139,10 +5072,10 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E3" s="2">
         <v>45538</v>
@@ -5176,20 +5109,20 @@
         <v>16</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2">
         <v>45541</v>
       </c>
       <c r="F4" s="2">
-        <v>45545</v>
+        <v>45543</v>
       </c>
       <c r="G4" s="1">
         <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3">
         <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
@@ -5210,23 +5143,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2">
-        <v>45545</v>
+        <v>45543</v>
       </c>
       <c r="F5" s="2">
-        <v>45547</v>
+        <v>45546</v>
       </c>
       <c r="G5" s="1">
         <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3">
         <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
@@ -5250,20 +5183,20 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2">
-        <v>45547</v>
+        <v>45546</v>
       </c>
       <c r="F6" s="2">
         <v>45549</v>
       </c>
       <c r="G6" s="1">
         <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="3">
         <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
@@ -5284,23 +5217,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2">
         <v>45549</v>
       </c>
       <c r="F7" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="G7" s="1">
         <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H7" s="3">
         <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
@@ -5321,23 +5254,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="F8" s="2">
-        <v>45556</v>
+        <v>45563</v>
       </c>
       <c r="G8" s="1">
         <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H8" s="3">
         <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
@@ -5358,23 +5291,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
-        <v>45556</v>
+        <v>45563</v>
       </c>
       <c r="F9" s="2">
-        <v>45561</v>
+        <v>45565</v>
       </c>
       <c r="G9" s="1">
         <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9" s="3">
         <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
@@ -5383,80 +5316,6 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
-IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
-IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</f>
-        <v>Concluído</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2">
-        <v>45561</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45563</v>
-      </c>
-      <c r="G10" s="1">
-        <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>2</v>
-      </c>
-      <c r="H10" s="3">
-        <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
-IF($L$1&gt;Tabela4[[#This Row],[Data de Início Prevista]],($L$1-Tabela4[[#This Row],[Data de Início Prevista]])/(Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]),
-IF($L$1&lt;Tabela4[[#This Row],[Data de Início Prevista]],0)))</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <f>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
-IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
-IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</f>
-        <v>Concluído</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2">
-        <v>45563</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45565</v>
-      </c>
-      <c r="G11" s="1">
-        <f>Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]</f>
-        <v>2</v>
-      </c>
-      <c r="H11" s="3">
-        <f>IF($L$1&gt;Tabela4[[#This Row],[Data de Término Prevista]],1,
-IF($L$1&gt;Tabela4[[#This Row],[Data de Início Prevista]],($L$1-Tabela4[[#This Row],[Data de Início Prevista]])/(Tabela4[[#This Row],[Data de Término Prevista]]-Tabela4[[#This Row],[Data de Início Prevista]]),
-IF($L$1&lt;Tabela4[[#This Row],[Data de Início Prevista]],0)))</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="str">
         <f>IF(Tabela4[[#This Row],[% de Conclusão]]=1,"Concluído",
 IF(Tabela4[[#This Row],[% de Conclusão]]=0,"Não iniciado",
 IF(Tabela4[[#This Row],[% de Conclusão]]&lt;1,"Em andamento")))</f>
@@ -5477,7 +5336,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5558,7 +5417,7 @@
         <v>45541</v>
       </c>
       <c r="C5" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="9" t="e">
         <v>#N/A</v>
@@ -5569,13 +5428,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B6" s="13">
-        <v>45545</v>
+        <v>45543</v>
       </c>
       <c r="C6" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9" t="e">
         <v>#N/A</v>
@@ -5589,10 +5448,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="13">
-        <v>45547</v>
+        <v>45546</v>
       </c>
       <c r="C7" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="9" t="e">
         <v>#N/A</v>
@@ -5603,13 +5462,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B8" s="13">
         <v>45549</v>
       </c>
       <c r="C8" s="15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" s="9" t="e">
         <v>#N/A</v>
@@ -5620,13 +5479,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B9" s="13">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="C9" s="15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9" s="9" t="e">
         <v>#N/A</v>
@@ -5637,13 +5496,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="13">
-        <v>45556</v>
+        <v>45563</v>
       </c>
       <c r="C10" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="9" t="e">
         <v>#N/A</v>
@@ -5653,38 +5512,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="13">
-        <v>45561</v>
-      </c>
-      <c r="C11" s="15">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E11" s="15" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="13">
-        <v>45563</v>
-      </c>
-      <c r="C12" s="15">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="15" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13"/>
@@ -5700,7 +5537,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
